--- a/Comissao.xlsx
+++ b/Comissao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,331 +465,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800</v>
-      </c>
-      <c r="E2" t="n">
-        <v>110</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D3" t="n">
-        <v>510</v>
-      </c>
-      <c r="E3" t="n">
-        <v>200</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6700</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E4" t="n">
-        <v>410</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D5" t="n">
-        <v>200</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8200</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1660</v>
-      </c>
-      <c r="E6" t="n">
-        <v>500</v>
-      </c>
-      <c r="F6" t="n">
-        <v>220</v>
-      </c>
-      <c r="G6" t="n">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>50</v>
-      </c>
-      <c r="G8" t="n">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>300</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D11" t="n">
-        <v>900</v>
-      </c>
-      <c r="E11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>180</v>
-      </c>
-      <c r="E12" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>3400</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E13" t="n">
-        <v>200</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>350</v>
-      </c>
-      <c r="E14" t="n">
-        <v>100</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>97</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
